--- a/results_final/ei_MM.xlsx
+++ b/results_final/ei_MM.xlsx
@@ -611,97 +611,97 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.560826639597812</v>
+        <v>1.560826639597811</v>
       </c>
       <c r="C3">
         <v>1.242580578481868</v>
       </c>
       <c r="D3">
-        <v>1.023644058294091</v>
+        <v>1.02364405829409</v>
       </c>
       <c r="E3">
-        <v>0.8681598903973761</v>
+        <v>0.868159890397375</v>
       </c>
       <c r="F3">
-        <v>0.7547147754345724</v>
+        <v>0.7547147754345712</v>
       </c>
       <c r="G3">
-        <v>0.6700211584700386</v>
+        <v>0.6700211584700374</v>
       </c>
       <c r="H3">
-        <v>0.6055476633214779</v>
+        <v>0.6055476633214767</v>
       </c>
       <c r="I3">
-        <v>0.5556472580015481</v>
+        <v>0.5556472580015468</v>
       </c>
       <c r="J3">
-        <v>0.5164786719978391</v>
+        <v>0.5164786719978378</v>
       </c>
       <c r="K3">
-        <v>0.4853640725959491</v>
+        <v>0.4853640725959478</v>
       </c>
       <c r="L3">
-        <v>0.4603949750869394</v>
+        <v>0.4603949750869381</v>
       </c>
       <c r="M3">
-        <v>0.4401838266138441</v>
+        <v>0.4401838266138428</v>
       </c>
       <c r="N3">
-        <v>0.4237035103379888</v>
+        <v>0.4237035103379875</v>
       </c>
       <c r="O3">
-        <v>0.4101812890666088</v>
+        <v>0.4101812890666076</v>
       </c>
       <c r="P3">
-        <v>0.3990272559117028</v>
+        <v>0.3990272559117016</v>
       </c>
       <c r="Q3">
-        <v>0.3897851327356464</v>
+        <v>0.3897851327356452</v>
       </c>
       <c r="R3">
-        <v>0.3820978310362544</v>
+        <v>0.3820978310362532</v>
       </c>
       <c r="S3">
-        <v>0.3756829447254599</v>
+        <v>0.3756829447254588</v>
       </c>
       <c r="T3">
-        <v>0.3703150395044528</v>
+        <v>0.3703150395044515</v>
       </c>
       <c r="U3">
-        <v>0.3658126677073626</v>
+        <v>0.3658126677073614</v>
       </c>
       <c r="V3">
-        <v>0.3620287179120865</v>
+        <v>0.3620287179120853</v>
       </c>
       <c r="W3">
-        <v>0.3588431511666753</v>
+        <v>0.358843151166674</v>
       </c>
       <c r="X3">
-        <v>0.3561574681118166</v>
+        <v>0.3561574681118154</v>
       </c>
       <c r="Y3">
-        <v>0.3538904473871987</v>
+        <v>0.3538904473871975</v>
       </c>
       <c r="Z3">
-        <v>0.3519748290440544</v>
+        <v>0.3519748290440533</v>
       </c>
       <c r="AA3">
-        <v>0.3503547085187992</v>
+        <v>0.3503547085187981</v>
       </c>
       <c r="AB3">
-        <v>0.3489834707449376</v>
+        <v>0.3489834707449365</v>
       </c>
       <c r="AC3">
-        <v>0.3478221391314008</v>
+        <v>0.3478221391313997</v>
       </c>
       <c r="AD3">
-        <v>0.3468380463293273</v>
+        <v>0.3468380463293262</v>
       </c>
       <c r="AE3">
-        <v>0.3460037569076408</v>
+        <v>0.3460037569076397</v>
       </c>
       <c r="AF3">
-        <v>0.345296188945238</v>
+        <v>0.3452961889452369</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -905,97 +905,97 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.078760376804843</v>
+        <v>3.078760376804844</v>
       </c>
       <c r="C6">
-        <v>1.815660816821453</v>
+        <v>1.815660816821454</v>
       </c>
       <c r="D6">
         <v>1.159030138338954</v>
       </c>
       <c r="E6">
-        <v>0.791399434714898</v>
+        <v>0.7913994347148985</v>
       </c>
       <c r="F6">
-        <v>0.5722049248222928</v>
+        <v>0.5722049248222931</v>
       </c>
       <c r="G6">
-        <v>0.4343442420841654</v>
+        <v>0.4343442420841657</v>
       </c>
       <c r="H6">
-        <v>0.3436166300963715</v>
+        <v>0.3436166300963717</v>
       </c>
       <c r="I6">
-        <v>0.2815647376910032</v>
+        <v>0.2815647376910034</v>
       </c>
       <c r="J6">
-        <v>0.2377150840804188</v>
+        <v>0.2377150840804189</v>
       </c>
       <c r="K6">
-        <v>0.2058559600455815</v>
+        <v>0.2058559600455817</v>
       </c>
       <c r="L6">
-        <v>0.1821562783535775</v>
+        <v>0.1821562783535777</v>
       </c>
       <c r="M6">
-        <v>0.1641695995721358</v>
+        <v>0.1641695995721359</v>
       </c>
       <c r="N6">
-        <v>0.1502844492323235</v>
+        <v>0.1502844492323236</v>
       </c>
       <c r="O6">
-        <v>0.1394094306139397</v>
+        <v>0.1394094306139398</v>
       </c>
       <c r="P6">
-        <v>0.1307866893294528</v>
+        <v>0.1307866893294529</v>
       </c>
       <c r="Q6">
-        <v>0.1238780129299248</v>
+        <v>0.1238780129299249</v>
       </c>
       <c r="R6">
-        <v>0.1182933447994218</v>
+        <v>0.1182933447994219</v>
       </c>
       <c r="S6">
-        <v>0.113744781572417</v>
+        <v>0.1137447815724171</v>
       </c>
       <c r="T6">
-        <v>0.1100162847867532</v>
+        <v>0.1100162847867533</v>
       </c>
       <c r="U6">
-        <v>0.106943315620263</v>
+        <v>0.1069433156202631</v>
       </c>
       <c r="V6">
-        <v>0.1043988738417399</v>
+        <v>0.1043988738417401</v>
       </c>
       <c r="W6">
-        <v>0.1022837537119813</v>
+        <v>0.1022837537119814</v>
       </c>
       <c r="X6">
-        <v>0.100519628563536</v>
+        <v>0.1005196285635361</v>
       </c>
       <c r="Y6">
-        <v>0.09904406576331738</v>
+        <v>0.09904406576331749</v>
       </c>
       <c r="Z6">
-        <v>0.09780688034895157</v>
+        <v>0.09780688034895169</v>
       </c>
       <c r="AA6">
-        <v>0.09676743107654008</v>
+        <v>0.09676743107654019</v>
       </c>
       <c r="AB6">
-        <v>0.09589258938499642</v>
+        <v>0.09589258938499653</v>
       </c>
       <c r="AC6">
-        <v>0.09515519533354976</v>
+        <v>0.09515519533354987</v>
       </c>
       <c r="AD6">
-        <v>0.09453287046512969</v>
+        <v>0.0945328704651298</v>
       </c>
       <c r="AE6">
-        <v>0.09400709546740105</v>
+        <v>0.09400709546740116</v>
       </c>
       <c r="AF6">
-        <v>0.0935624865646298</v>
+        <v>0.09356248656462991</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1202,94 +1202,94 @@
         <v>2.127814202433856</v>
       </c>
       <c r="C9">
-        <v>1.564657177444223</v>
+        <v>1.564657177444222</v>
       </c>
       <c r="D9">
-        <v>1.204846903975001</v>
+        <v>1.204846903975</v>
       </c>
       <c r="E9">
-        <v>0.9648674040431794</v>
+        <v>0.9648674040431784</v>
       </c>
       <c r="F9">
-        <v>0.7988643458024843</v>
+        <v>0.7988643458024833</v>
       </c>
       <c r="G9">
-        <v>0.6804208789280327</v>
+        <v>0.6804208789280318</v>
       </c>
       <c r="H9">
-        <v>0.5936582885287055</v>
+        <v>0.5936582885287045</v>
       </c>
       <c r="I9">
-        <v>0.5286662721759654</v>
+        <v>0.5286662721759644</v>
       </c>
       <c r="J9">
-        <v>0.4790489718467932</v>
+        <v>0.4790489718467922</v>
       </c>
       <c r="K9">
-        <v>0.4405533159010618</v>
+        <v>0.4405533159010608</v>
       </c>
       <c r="L9">
-        <v>0.4102742422760344</v>
+        <v>0.4102742422760334</v>
       </c>
       <c r="M9">
-        <v>0.3861790084299548</v>
+        <v>0.3861790084299539</v>
       </c>
       <c r="N9">
-        <v>0.3668140081645788</v>
+        <v>0.3668140081645778</v>
       </c>
       <c r="O9">
-        <v>0.351119196858257</v>
+        <v>0.351119196858256</v>
       </c>
       <c r="P9">
-        <v>0.3383077424736838</v>
+        <v>0.3383077424736829</v>
       </c>
       <c r="Q9">
-        <v>0.3277862225181515</v>
+        <v>0.3277862225181506</v>
       </c>
       <c r="R9">
-        <v>0.3191006140565744</v>
+        <v>0.3191006140565736</v>
       </c>
       <c r="S9">
-        <v>0.3118990434033346</v>
+        <v>0.3118990434033337</v>
       </c>
       <c r="T9">
-        <v>0.3059056407242738</v>
+        <v>0.305905640724273</v>
       </c>
       <c r="U9">
-        <v>0.3009018869908782</v>
+        <v>0.3009018869908773</v>
       </c>
       <c r="V9">
-        <v>0.2967131016393442</v>
+        <v>0.2967131016393433</v>
       </c>
       <c r="W9">
-        <v>0.293198513239802</v>
+        <v>0.2931985132398012</v>
       </c>
       <c r="X9">
-        <v>0.290243864577458</v>
+        <v>0.2902438645774573</v>
       </c>
       <c r="Y9">
-        <v>0.287755835539008</v>
+        <v>0.2877558355390072</v>
       </c>
       <c r="Z9">
-        <v>0.2856577871130495</v>
+        <v>0.2856577871130486</v>
       </c>
       <c r="AA9">
-        <v>0.2838864776279335</v>
+        <v>0.2838864776279327</v>
       </c>
       <c r="AB9">
-        <v>0.2823895030659503</v>
+        <v>0.2823895030659495</v>
       </c>
       <c r="AC9">
-        <v>0.2811232827990277</v>
+        <v>0.2811232827990269</v>
       </c>
       <c r="AD9">
-        <v>0.2800514606405087</v>
+        <v>0.2800514606405079</v>
       </c>
       <c r="AE9">
-        <v>0.279143625408432</v>
+        <v>0.2791436254084312</v>
       </c>
       <c r="AF9">
-        <v>0.278374279695513</v>
+        <v>0.2783742796955123</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1300,94 +1300,94 @@
         <v>1.411902709128922</v>
       </c>
       <c r="C10">
-        <v>0.967878292945679</v>
+        <v>0.9678782929456795</v>
       </c>
       <c r="D10">
-        <v>0.7021571642522064</v>
+        <v>0.7021571642522071</v>
       </c>
       <c r="E10">
-        <v>0.5345100504696008</v>
+        <v>0.5345100504696014</v>
       </c>
       <c r="F10">
-        <v>0.4238861125966138</v>
+        <v>0.4238861125966145</v>
       </c>
       <c r="G10">
-        <v>0.3480555026165715</v>
+        <v>0.3480555026165721</v>
       </c>
       <c r="H10">
-        <v>0.2943661871423028</v>
+        <v>0.2943661871423034</v>
       </c>
       <c r="I10">
-        <v>0.2552944821589098</v>
+        <v>0.2552944821589104</v>
       </c>
       <c r="J10">
-        <v>0.2261892226425353</v>
+        <v>0.2261892226425359</v>
       </c>
       <c r="K10">
-        <v>0.2040740652212885</v>
+        <v>0.2040740652212891</v>
       </c>
       <c r="L10">
-        <v>0.1869848143579521</v>
+        <v>0.1869848143579526</v>
       </c>
       <c r="M10">
-        <v>0.1735889518779598</v>
+        <v>0.1735889518779603</v>
       </c>
       <c r="N10">
-        <v>0.162959792430145</v>
+        <v>0.1629597924301455</v>
       </c>
       <c r="O10">
-        <v>0.1544383266695844</v>
+        <v>0.1544383266695849</v>
       </c>
       <c r="P10">
-        <v>0.1475463662886166</v>
+        <v>0.1475463662886171</v>
       </c>
       <c r="Q10">
-        <v>0.1419305659814996</v>
+        <v>0.1419305659815001</v>
       </c>
       <c r="R10">
-        <v>0.1373255156542232</v>
+        <v>0.1373255156542237</v>
       </c>
       <c r="S10">
-        <v>0.1335288924336724</v>
+        <v>0.1335288924336729</v>
       </c>
       <c r="T10">
-        <v>0.1303844062857118</v>
+        <v>0.1303844062857122</v>
       </c>
       <c r="U10">
-        <v>0.1277698837690581</v>
+        <v>0.1277698837690585</v>
       </c>
       <c r="V10">
-        <v>0.1255888023184362</v>
+        <v>0.1255888023184367</v>
       </c>
       <c r="W10">
-        <v>0.1237641817805556</v>
+        <v>0.1237641817805561</v>
       </c>
       <c r="X10">
-        <v>0.1222341122699515</v>
+        <v>0.1222341122699519</v>
       </c>
       <c r="Y10">
-        <v>0.1209484350500916</v>
+        <v>0.120948435050092</v>
       </c>
       <c r="Z10">
-        <v>0.1198662474421107</v>
+        <v>0.1198662474421112</v>
       </c>
       <c r="AA10">
-        <v>0.1189540045599041</v>
+        <v>0.1189540045599046</v>
       </c>
       <c r="AB10">
-        <v>0.1181840588350413</v>
+        <v>0.1181840588350418</v>
       </c>
       <c r="AC10">
-        <v>0.1175335245766436</v>
+        <v>0.1175335245766441</v>
       </c>
       <c r="AD10">
-        <v>0.1169833866460327</v>
+        <v>0.1169833866460332</v>
       </c>
       <c r="AE10">
-        <v>0.1165177944927447</v>
+        <v>0.1165177944927451</v>
       </c>
       <c r="AF10">
-        <v>0.1161234984132019</v>
+        <v>0.1161234984132024</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1398,94 +1398,94 @@
         <v>1.507308620165566</v>
       </c>
       <c r="C11">
-        <v>1.365761454906526</v>
+        <v>1.365761454906527</v>
       </c>
       <c r="D11">
-        <v>1.25594788885382</v>
+        <v>1.255947888853821</v>
       </c>
       <c r="E11">
         <v>1.169577146259851</v>
       </c>
       <c r="F11">
-        <v>1.100848458892436</v>
+        <v>1.100848458892437</v>
       </c>
       <c r="G11">
-        <v>1.045614035533341</v>
+        <v>1.045614035533342</v>
       </c>
       <c r="H11">
-        <v>1.000849300339585</v>
+        <v>1.000849300339586</v>
       </c>
       <c r="I11">
-        <v>0.9643093610796174</v>
+        <v>0.9643093610796185</v>
       </c>
       <c r="J11">
-        <v>0.9343012321724345</v>
+        <v>0.9343012321724357</v>
       </c>
       <c r="K11">
-        <v>0.9095296884182077</v>
+        <v>0.9095296884182089</v>
       </c>
       <c r="L11">
-        <v>0.8889909585202781</v>
+        <v>0.8889909585202794</v>
       </c>
       <c r="M11">
-        <v>0.8718981149077297</v>
+        <v>0.8718981149077312</v>
       </c>
       <c r="N11">
-        <v>0.8576278473062269</v>
+        <v>0.8576278473062283</v>
       </c>
       <c r="O11">
-        <v>0.8456819073975</v>
+        <v>0.8456819073975015</v>
       </c>
       <c r="P11">
-        <v>0.8356587784802403</v>
+        <v>0.8356587784802417</v>
       </c>
       <c r="Q11">
-        <v>0.8272325773178641</v>
+        <v>0.8272325773178656</v>
       </c>
       <c r="R11">
-        <v>0.8201371430089215</v>
+        <v>0.8201371430089229</v>
       </c>
       <c r="S11">
-        <v>0.81415389541639</v>
+        <v>0.8141538954163914</v>
       </c>
       <c r="T11">
-        <v>0.809102467575042</v>
+        <v>0.8091024675750434</v>
       </c>
       <c r="U11">
-        <v>0.8048334039374857</v>
+        <v>0.8048334039374871</v>
       </c>
       <c r="V11">
-        <v>0.8012224146810127</v>
+        <v>0.8012224146810142</v>
       </c>
       <c r="W11">
-        <v>0.7981658148447863</v>
+        <v>0.7981658148447878</v>
       </c>
       <c r="X11">
-        <v>0.7955768749486561</v>
+        <v>0.7955768749486575</v>
       </c>
       <c r="Y11">
-        <v>0.7933828796552964</v>
+        <v>0.7933828796552977</v>
       </c>
       <c r="Z11">
-        <v>0.7915227414957701</v>
+        <v>0.7915227414957714</v>
       </c>
       <c r="AA11">
-        <v>0.7899450534683652</v>
+        <v>0.7899450534683665</v>
       </c>
       <c r="AB11">
-        <v>0.7886064914099628</v>
+        <v>0.7886064914099641</v>
       </c>
       <c r="AC11">
-        <v>0.7874704971787774</v>
+        <v>0.7874704971787787</v>
       </c>
       <c r="AD11">
-        <v>0.7865061888016872</v>
+        <v>0.7865061888016884</v>
       </c>
       <c r="AE11">
-        <v>0.7856874551874404</v>
+        <v>0.7856874551874417</v>
       </c>
       <c r="AF11">
-        <v>0.7849922017566054</v>
+        <v>0.7849922017566067</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1493,10 +1493,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.434219760368954</v>
+        <v>2.434219760368953</v>
       </c>
       <c r="C12">
-        <v>2.071510060701155</v>
+        <v>2.071510060701154</v>
       </c>
       <c r="D12">
         <v>1.806031083536088</v>
@@ -1505,7 +1505,7 @@
         <v>1.607302678319544</v>
       </c>
       <c r="F12">
-        <v>1.455674415215694</v>
+        <v>1.455674415215695</v>
       </c>
       <c r="G12">
         <v>1.338091593998527</v>
@@ -1520,70 +1520,70 @@
         <v>1.113019015823447</v>
       </c>
       <c r="K12">
-        <v>1.065144250523007</v>
+        <v>1.065144250523008</v>
       </c>
       <c r="L12">
-        <v>1.026073317517309</v>
+        <v>1.02607331751731</v>
       </c>
       <c r="M12">
-        <v>0.9939919469155912</v>
+        <v>0.9939919469155919</v>
       </c>
       <c r="N12">
-        <v>0.9675126829253367</v>
+        <v>0.9675126829253373</v>
       </c>
       <c r="O12">
-        <v>0.9455606654280089</v>
+        <v>0.9455606654280095</v>
       </c>
       <c r="P12">
-        <v>0.9272935069327564</v>
+        <v>0.927293506932757</v>
       </c>
       <c r="Q12">
-        <v>0.9120441599557016</v>
+        <v>0.9120441599557023</v>
       </c>
       <c r="R12">
-        <v>0.8992795502356875</v>
+        <v>0.8992795502356881</v>
       </c>
       <c r="S12">
-        <v>0.8885701929959103</v>
+        <v>0.8885701929959109</v>
       </c>
       <c r="T12">
-        <v>0.8795675742743577</v>
+        <v>0.8795675742743583</v>
       </c>
       <c r="U12">
-        <v>0.8719870992397882</v>
+        <v>0.8719870992397888</v>
       </c>
       <c r="V12">
-        <v>0.8655950846611152</v>
+        <v>0.8655950846611158</v>
       </c>
       <c r="W12">
-        <v>0.8601987263511947</v>
+        <v>0.8601987263511953</v>
       </c>
       <c r="X12">
-        <v>0.8556382813729535</v>
+        <v>0.8556382813729542</v>
       </c>
       <c r="Y12">
-        <v>0.8517809179338245</v>
+        <v>0.8517809179338252</v>
       </c>
       <c r="Z12">
-        <v>0.8485158347110657</v>
+        <v>0.8485158347110664</v>
       </c>
       <c r="AA12">
-        <v>0.8457503564527035</v>
+        <v>0.8457503564527041</v>
       </c>
       <c r="AB12">
-        <v>0.8434067877426075</v>
+        <v>0.8434067877426081</v>
       </c>
       <c r="AC12">
-        <v>0.8414198609651897</v>
+        <v>0.8414198609651904</v>
       </c>
       <c r="AD12">
-        <v>0.8397346539726841</v>
+        <v>0.8397346539726848</v>
       </c>
       <c r="AE12">
-        <v>0.8383048820107176</v>
+        <v>0.8383048820107183</v>
       </c>
       <c r="AF12">
-        <v>0.8370914900510334</v>
+        <v>0.8370914900510341</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1594,94 +1594,94 @@
         <v>1.294687646522454</v>
       </c>
       <c r="C13">
-        <v>1.335384803242596</v>
+        <v>1.335384803242595</v>
       </c>
       <c r="D13">
-        <v>1.370981647856104</v>
+        <v>1.370981647856102</v>
       </c>
       <c r="E13">
-        <v>1.401984044907979</v>
+        <v>1.401984044907977</v>
       </c>
       <c r="F13">
-        <v>1.428886676322271</v>
+        <v>1.428886676322268</v>
       </c>
       <c r="G13">
-        <v>1.452159414565637</v>
+        <v>1.452159414565634</v>
       </c>
       <c r="H13">
-        <v>1.472239029027346</v>
+        <v>1.472239029027343</v>
       </c>
       <c r="I13">
-        <v>1.489524852681634</v>
+        <v>1.48952485268163</v>
       </c>
       <c r="J13">
-        <v>1.50437728355397</v>
+        <v>1.504377283553965</v>
       </c>
       <c r="K13">
-        <v>1.517118233459418</v>
+        <v>1.517118233459414</v>
       </c>
       <c r="L13">
-        <v>1.528032846376873</v>
+        <v>1.528032846376868</v>
       </c>
       <c r="M13">
-        <v>1.537371983954749</v>
+        <v>1.537371983954744</v>
       </c>
       <c r="N13">
-        <v>1.545355116034133</v>
+        <v>1.545355116034128</v>
       </c>
       <c r="O13">
-        <v>1.552173363151171</v>
+        <v>1.552173363151165</v>
       </c>
       <c r="P13">
-        <v>1.557992520532322</v>
+        <v>1.557992520532316</v>
       </c>
       <c r="Q13">
-        <v>1.56295595411614</v>
+        <v>1.562955954116134</v>
       </c>
       <c r="R13">
-        <v>1.567187303219665</v>
+        <v>1.567187303219659</v>
       </c>
       <c r="S13">
-        <v>1.570792955562553</v>
+        <v>1.570792955562546</v>
       </c>
       <c r="T13">
-        <v>1.573864281704556</v>
+        <v>1.573864281704549</v>
       </c>
       <c r="U13">
-        <v>1.576479630111683</v>
+        <v>1.576479630111676</v>
       </c>
       <c r="V13">
-        <v>1.578706093033011</v>
+        <v>1.578706093033004</v>
       </c>
       <c r="W13">
-        <v>1.580601058653355</v>
+        <v>1.580601058653348</v>
       </c>
       <c r="X13">
-        <v>1.582213567712573</v>
+        <v>1.582213567712566</v>
       </c>
       <c r="Y13">
-        <v>1.583585493776315</v>
+        <v>1.583585493776308</v>
       </c>
       <c r="Z13">
-        <v>1.584752566202949</v>
+        <v>1.584752566202942</v>
       </c>
       <c r="AA13">
-        <v>1.585745254002325</v>
+        <v>1.585745254002318</v>
       </c>
       <c r="AB13">
-        <v>1.58658952752158</v>
+        <v>1.586589527521573</v>
       </c>
       <c r="AC13">
-        <v>1.587307513425535</v>
+        <v>1.587307513425527</v>
       </c>
       <c r="AD13">
-        <v>1.58791805690106</v>
+        <v>1.587918056901052</v>
       </c>
       <c r="AE13">
-        <v>1.588437203494675</v>
+        <v>1.588437203494667</v>
       </c>
       <c r="AF13">
-        <v>1.588878611545225</v>
+        <v>1.588878611545218</v>
       </c>
     </row>
   </sheetData>
